--- a/output/BayesTheo1Citptile0.9alpha0.05power0.8N1000/BayesTheo1Citptile0.9alpha0.05power0.8N1000N1000.xlsx
+++ b/output/BayesTheo1Citptile0.9alpha0.05power0.8N1000/BayesTheo1Citptile0.9alpha0.05power0.8N1000N1000.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lewan\Documents\MATLAB\Modeling\Replication market\output\BayesTheo1Citptile0.9alpha0.05power0.8N1000\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7812FCA-9CDE-478C-B506-CBA4F6189FA7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C150E86-DFD2-4392-8128-3F2FC857C83B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="2250" windowWidth="21600" windowHeight="12735" xr2:uid="{1CB448CA-516C-4787-AD9B-03FF371E3867}"/>
+    <workbookView xWindow="1152" yWindow="6684" windowWidth="27060" windowHeight="10800" xr2:uid="{3CEEB804-EDCF-45D9-940C-1CBB4AC74196}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="4" r:id="rId1"/>
@@ -466,29 +466,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A0F2D8-7DB7-4B63-A30F-C6C098CC8801}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5384DBB-A667-4000-9E19-E3A227501115}">
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -535,7 +535,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -543,46 +543,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.6032470964720505E-2</v>
+        <v>1.5719626886026194E-2</v>
       </c>
       <c r="D2">
-        <v>0.90081860327600505</v>
+        <v>0.90050506149226772</v>
       </c>
       <c r="E2">
-        <v>8.1829999999999998</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="F2">
-        <v>147.05699999999999</v>
+        <v>146.91200000000001</v>
       </c>
       <c r="G2">
-        <v>41.667000000000002</v>
+        <v>41.636000000000003</v>
       </c>
       <c r="H2">
-        <v>5.9729999999999999</v>
+        <v>5.8689999999999998</v>
       </c>
       <c r="I2">
-        <v>5.9290000000000003</v>
+        <v>5.702</v>
       </c>
       <c r="J2">
-        <v>1.0532837670384137E-2</v>
+        <v>1.617826617826618E-2</v>
       </c>
       <c r="K2">
-        <v>0.90240978096644098</v>
+        <v>0.90207195338830681</v>
       </c>
       <c r="L2">
-        <v>47.057000000000002</v>
+        <v>46.911999999999999</v>
       </c>
       <c r="M2">
-        <v>147.05699999999999</v>
+        <v>146.91200000000001</v>
       </c>
       <c r="N2">
-        <v>5.7560000000000002</v>
+        <v>5.6580000000000004</v>
       </c>
       <c r="O2">
-        <v>6.0289999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>6.1920000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -590,46 +590,46 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.5663151061516157E-2</v>
+        <v>1.5312304184101368E-2</v>
       </c>
       <c r="D3">
-        <v>0.90279448689565167</v>
+        <v>0.90029669745877294</v>
       </c>
       <c r="E3">
-        <v>8.173</v>
+        <v>8.1630000000000003</v>
       </c>
       <c r="F3">
-        <v>146.68899999999999</v>
+        <v>146.72</v>
       </c>
       <c r="G3">
-        <v>41.484999999999999</v>
+        <v>41.542000000000002</v>
       </c>
       <c r="H3">
-        <v>4.258</v>
+        <v>4.2249999999999996</v>
       </c>
       <c r="I3">
-        <v>4.13</v>
+        <v>4.2009999999999996</v>
       </c>
       <c r="J3">
-        <v>2.0547945205479451E-2</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.90289845139242675</v>
+        <v>0.89815241709714</v>
       </c>
       <c r="L3">
-        <v>46.689</v>
+        <v>46.72</v>
       </c>
       <c r="M3">
-        <v>104.816</v>
+        <v>104.71</v>
       </c>
       <c r="N3">
-        <v>4.2859999999999996</v>
+        <v>4.1689999999999996</v>
       </c>
       <c r="O3">
-        <v>4.2839999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4.1689999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -637,46 +637,46 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>1.5694314276401437E-2</v>
+        <v>1.5119309062183719E-2</v>
       </c>
       <c r="D4">
-        <v>0.89942997574812289</v>
+        <v>0.9018986575500908</v>
       </c>
       <c r="E4">
-        <v>8.202</v>
+        <v>8.2010000000000005</v>
       </c>
       <c r="F4">
-        <v>146.608</v>
+        <v>146.892</v>
       </c>
       <c r="G4">
-        <v>41.377000000000002</v>
+        <v>41.523000000000003</v>
       </c>
       <c r="H4">
-        <v>5.8179999999999996</v>
+        <v>5.7249999999999996</v>
       </c>
       <c r="I4">
-        <v>5.633</v>
+        <v>5.7880000000000003</v>
       </c>
       <c r="J4">
-        <v>2.3529411764705882E-2</v>
+        <v>9.5238095238095247E-3</v>
       </c>
       <c r="K4">
-        <v>0.90476907536907503</v>
+        <v>0.89564182619738264</v>
       </c>
       <c r="L4">
-        <v>46.607999999999997</v>
+        <v>46.892000000000003</v>
       </c>
       <c r="M4">
-        <v>106.61499999999999</v>
+        <v>106.83</v>
       </c>
       <c r="N4">
-        <v>5.9</v>
+        <v>6.0350000000000001</v>
       </c>
       <c r="O4">
-        <v>5.8979999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>6.0339999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -684,46 +684,46 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>1.5049001531674603E-2</v>
+        <v>1.5440633823154179E-2</v>
       </c>
       <c r="D5">
-        <v>0.90258764048529005</v>
+        <v>0.90261966880211653</v>
       </c>
       <c r="E5">
-        <v>8.1820000000000004</v>
+        <v>8.1980000000000004</v>
       </c>
       <c r="F5">
-        <v>146.99199999999999</v>
+        <v>147.18899999999999</v>
       </c>
       <c r="G5">
-        <v>41.695999999999998</v>
+        <v>41.878</v>
       </c>
       <c r="H5">
-        <v>10.295999999999999</v>
+        <v>10.135</v>
       </c>
       <c r="I5">
-        <v>9.4329999999999998</v>
+        <v>9.5340000000000007</v>
       </c>
       <c r="J5">
-        <v>1.9736842105263157E-2</v>
+        <v>8.5227272727272721E-3</v>
       </c>
       <c r="K5">
-        <v>0.90360098536654299</v>
+        <v>0.8995698722115516</v>
       </c>
       <c r="L5">
-        <v>46.991999999999997</v>
+        <v>47.189</v>
       </c>
       <c r="M5">
-        <v>111.015</v>
+        <v>111.09099999999999</v>
       </c>
       <c r="N5">
-        <v>9.8179999999999996</v>
+        <v>9.827</v>
       </c>
       <c r="O5">
-        <v>9.8149999999999995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.8249999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -731,46 +731,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.4498742026203045E-2</v>
+        <v>1.6204886109845756E-2</v>
       </c>
       <c r="D6">
-        <v>0.8979448541251478</v>
+        <v>0.90128928130475416</v>
       </c>
       <c r="E6">
-        <v>8.1720000000000006</v>
+        <v>8.1639999999999997</v>
       </c>
       <c r="F6">
-        <v>146.673</v>
+        <v>146.93199999999999</v>
       </c>
       <c r="G6">
-        <v>41.515999999999998</v>
+        <v>41.649000000000001</v>
       </c>
       <c r="H6">
-        <v>5.9770000000000003</v>
+        <v>6.0970000000000004</v>
       </c>
       <c r="I6">
-        <v>5.4160000000000004</v>
+        <v>6.1909999999999998</v>
       </c>
       <c r="J6">
-        <v>1.7730496453900707E-2</v>
+        <v>1.6483516483516484E-2</v>
       </c>
       <c r="K6">
-        <v>0.90214764883984067</v>
+        <v>0.90063523557695735</v>
       </c>
       <c r="L6">
-        <v>46.673000000000002</v>
+        <v>46.932000000000002</v>
       </c>
       <c r="M6">
-        <v>146.673</v>
+        <v>146.93199999999999</v>
       </c>
       <c r="N6">
-        <v>5.7560000000000002</v>
+        <v>5.9740000000000002</v>
       </c>
       <c r="O6">
-        <v>6.282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>6.2320000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -778,46 +778,46 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1.6025076755608186E-2</v>
+        <v>1.5224376090763823E-2</v>
       </c>
       <c r="D7">
-        <v>0.90197034971735279</v>
+        <v>0.90123446562865783</v>
       </c>
       <c r="E7">
-        <v>8.1829999999999998</v>
+        <v>8.1850000000000005</v>
       </c>
       <c r="F7">
-        <v>147.09899999999999</v>
+        <v>146.934</v>
       </c>
       <c r="G7">
-        <v>41.720999999999997</v>
+        <v>41.655999999999999</v>
       </c>
       <c r="H7">
-        <v>4.2460000000000004</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="I7">
-        <v>4.3010000000000002</v>
+        <v>4.141</v>
       </c>
       <c r="J7">
-        <v>2.2988505747126436E-2</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="K7">
-        <v>0.89804618523084612</v>
+        <v>0.90465904020120824</v>
       </c>
       <c r="L7">
-        <v>47.098999999999997</v>
+        <v>46.933999999999997</v>
       </c>
       <c r="M7">
-        <v>104.691</v>
+        <v>104.88</v>
       </c>
       <c r="N7">
-        <v>4.1500000000000004</v>
+        <v>4.3609999999999998</v>
       </c>
       <c r="O7">
-        <v>4.1479999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4.359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -825,46 +825,46 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>1.5325356184041336E-2</v>
+        <v>1.5274768856959461E-2</v>
       </c>
       <c r="D8">
-        <v>0.90045927530397851</v>
+        <v>0.90171580829716291</v>
       </c>
       <c r="E8">
-        <v>8.2029999999999994</v>
+        <v>8.1890000000000001</v>
       </c>
       <c r="F8">
-        <v>146.91900000000001</v>
+        <v>146.96299999999999</v>
       </c>
       <c r="G8">
-        <v>41.616999999999997</v>
+        <v>41.728999999999999</v>
       </c>
       <c r="H8">
-        <v>6.2039999999999997</v>
+        <v>6.36</v>
       </c>
       <c r="I8">
-        <v>5.83</v>
+        <v>6.1740000000000004</v>
       </c>
       <c r="J8">
-        <v>9.3457943925233638E-3</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.91511458957708991</v>
+        <v>0.90314138916638875</v>
       </c>
       <c r="L8">
-        <v>46.918999999999997</v>
+        <v>46.963000000000001</v>
       </c>
       <c r="M8">
-        <v>106.786</v>
+        <v>106.759</v>
       </c>
       <c r="N8">
-        <v>6.0960000000000001</v>
+        <v>5.9909999999999997</v>
       </c>
       <c r="O8">
-        <v>6.0949999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5.9909999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -872,46 +872,46 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>1.5595919009278496E-2</v>
+        <v>1.5896386853814403E-2</v>
       </c>
       <c r="D9">
-        <v>0.90264816573964368</v>
+        <v>0.90233321024269975</v>
       </c>
       <c r="E9">
-        <v>8.1880000000000006</v>
+        <v>8.16</v>
       </c>
       <c r="F9">
-        <v>147.06299999999999</v>
+        <v>146.58199999999999</v>
       </c>
       <c r="G9">
-        <v>41.756999999999998</v>
+        <v>41.212000000000003</v>
       </c>
       <c r="H9">
-        <v>9.2430000000000003</v>
+        <v>9.2780000000000005</v>
       </c>
       <c r="I9">
-        <v>9.8179999999999996</v>
+        <v>9.6270000000000007</v>
       </c>
       <c r="J9">
-        <v>3.4482758620689655E-2</v>
+        <v>6.5359477124183009E-3</v>
       </c>
       <c r="K9">
-        <v>0.89945192738118396</v>
+        <v>0.89855138053810646</v>
       </c>
       <c r="L9">
-        <v>47.063000000000002</v>
+        <v>46.582000000000001</v>
       </c>
       <c r="M9">
-        <v>111.121</v>
+        <v>110.989</v>
       </c>
       <c r="N9">
-        <v>9.8379999999999992</v>
+        <v>9.7210000000000001</v>
       </c>
       <c r="O9">
-        <v>9.8320000000000007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.7200000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -919,46 +919,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>1.6646360818028866E-2</v>
+        <v>1.7370418962837923E-2</v>
       </c>
       <c r="D10">
-        <v>0.9052210971021768</v>
+        <v>0.91015646836281738</v>
       </c>
       <c r="E10">
         <v>8.1880000000000006</v>
       </c>
       <c r="F10">
-        <v>147.18299999999999</v>
+        <v>147.28700000000001</v>
       </c>
       <c r="G10">
-        <v>42.043999999999997</v>
+        <v>42.194000000000003</v>
       </c>
       <c r="H10">
-        <v>5.9909999999999997</v>
+        <v>5.7110000000000003</v>
       </c>
       <c r="I10">
-        <v>6.173</v>
+        <v>6.1589999999999998</v>
       </c>
       <c r="J10">
-        <v>1.1861861861861861E-2</v>
+        <v>2.7439024390243903E-2</v>
       </c>
       <c r="K10">
-        <v>0.90552168811687739</v>
+        <v>0.90754421329661672</v>
       </c>
       <c r="L10">
-        <v>47.183</v>
+        <v>47.286999999999999</v>
       </c>
       <c r="M10">
-        <v>147.18299999999999</v>
+        <v>147.28700000000001</v>
       </c>
       <c r="N10">
-        <v>6.1580000000000004</v>
+        <v>6.3289999999999997</v>
       </c>
       <c r="O10">
-        <v>6.1950000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>6.2869999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
@@ -966,46 +966,46 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>1.6195677499437858E-2</v>
+        <v>1.6267297792261853E-2</v>
       </c>
       <c r="D11">
-        <v>0.90650939359442995</v>
+        <v>0.90694264179445305</v>
       </c>
       <c r="E11">
-        <v>8.1859999999999999</v>
+        <v>8.1839999999999993</v>
       </c>
       <c r="F11">
-        <v>147.08500000000001</v>
+        <v>147.32900000000001</v>
       </c>
       <c r="G11">
-        <v>41.884</v>
+        <v>42.093000000000004</v>
       </c>
       <c r="H11">
-        <v>4.306</v>
+        <v>4.3150000000000004</v>
       </c>
       <c r="I11">
-        <v>4.3390000000000004</v>
+        <v>4.266</v>
       </c>
       <c r="J11">
-        <v>1.4084507042253521E-2</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.90371623528594436</v>
+        <v>0.89705958365596872</v>
       </c>
       <c r="L11">
-        <v>47.085000000000001</v>
+        <v>47.329000000000001</v>
       </c>
       <c r="M11">
-        <v>104.807</v>
+        <v>104.682</v>
       </c>
       <c r="N11">
-        <v>4.2770000000000001</v>
+        <v>4.141</v>
       </c>
       <c r="O11">
-        <v>4.2759999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4.141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5</v>
       </c>
@@ -1013,46 +1013,46 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>1.726246734733268E-2</v>
+        <v>1.7803492728216058E-2</v>
       </c>
       <c r="D12">
-        <v>0.90675249510908329</v>
+        <v>0.90820902797388159</v>
       </c>
       <c r="E12">
-        <v>8.1660000000000004</v>
+        <v>8.1910000000000007</v>
       </c>
       <c r="F12">
-        <v>147.13499999999999</v>
+        <v>147.16399999999999</v>
       </c>
       <c r="G12">
-        <v>41.923000000000002</v>
+        <v>42.021000000000001</v>
       </c>
       <c r="H12">
-        <v>5.9749999999999996</v>
+        <v>6.4240000000000004</v>
       </c>
       <c r="I12">
-        <v>5.915</v>
+        <v>6.0640000000000001</v>
       </c>
       <c r="J12">
-        <v>2.4590163934426229E-2</v>
+        <v>7.5187969924812026E-3</v>
       </c>
       <c r="K12">
-        <v>0.90826631659964974</v>
+        <v>0.90374748584748543</v>
       </c>
       <c r="L12">
-        <v>47.134999999999998</v>
+        <v>47.164000000000001</v>
       </c>
       <c r="M12">
-        <v>106.806</v>
+        <v>107.02800000000001</v>
       </c>
       <c r="N12">
-        <v>6.0720000000000001</v>
+        <v>6.2370000000000001</v>
       </c>
       <c r="O12">
-        <v>6.069</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>6.2359999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5</v>
       </c>
@@ -1060,46 +1060,46 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>1.6925232505366278E-2</v>
+        <v>1.6587294733725527E-2</v>
       </c>
       <c r="D13">
-        <v>0.90376146315382766</v>
+        <v>0.9066038017420599</v>
       </c>
       <c r="E13">
-        <v>8.1829999999999998</v>
+        <v>8.1910000000000007</v>
       </c>
       <c r="F13">
-        <v>146.655</v>
+        <v>147.30000000000001</v>
       </c>
       <c r="G13">
-        <v>41.481000000000002</v>
+        <v>42.243000000000002</v>
       </c>
       <c r="H13">
-        <v>9.9290000000000003</v>
+        <v>10.135999999999999</v>
       </c>
       <c r="I13">
-        <v>8.9380000000000006</v>
+        <v>10.651</v>
       </c>
       <c r="J13">
-        <v>2.0202020202020204E-2</v>
+        <v>1.4534883720930232E-2</v>
       </c>
       <c r="K13">
-        <v>0.90573047624030578</v>
+        <v>0.91224462591502142</v>
       </c>
       <c r="L13">
-        <v>46.655000000000001</v>
+        <v>47.3</v>
       </c>
       <c r="M13">
-        <v>111.086</v>
+        <v>111.261</v>
       </c>
       <c r="N13">
-        <v>9.8640000000000008</v>
+        <v>10.098000000000001</v>
       </c>
       <c r="O13">
-        <v>9.86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>10.093999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1107,46 +1107,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>1.96272681246944E-2</v>
+        <v>1.9432998914698497E-2</v>
       </c>
       <c r="D14">
-        <v>0.91598615044984344</v>
+        <v>0.91956779688119716</v>
       </c>
       <c r="E14">
-        <v>8.1820000000000004</v>
+        <v>8.1890000000000001</v>
       </c>
       <c r="F14">
-        <v>147.91999999999999</v>
+        <v>148.178</v>
       </c>
       <c r="G14">
-        <v>43.021999999999998</v>
+        <v>43.377000000000002</v>
       </c>
       <c r="H14">
-        <v>6.0209999999999999</v>
+        <v>6.6550000000000002</v>
       </c>
       <c r="I14">
-        <v>6.0990000000000002</v>
+        <v>6.1230000000000002</v>
       </c>
       <c r="J14">
-        <v>1.3349514563106795E-2</v>
+        <v>1.309921962095875E-2</v>
       </c>
       <c r="K14">
-        <v>0.91588241130069814</v>
+        <v>0.91807407441044908</v>
       </c>
       <c r="L14">
-        <v>47.92</v>
+        <v>48.177999999999997</v>
       </c>
       <c r="M14">
-        <v>147.91999999999999</v>
+        <v>148.178</v>
       </c>
       <c r="N14">
-        <v>5.8159999999999998</v>
+        <v>6.3010000000000002</v>
       </c>
       <c r="O14">
-        <v>6.0220000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>6.149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
@@ -1154,46 +1154,46 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>2.0162192936645625E-2</v>
+        <v>1.9869719648139376E-2</v>
       </c>
       <c r="D15">
-        <v>0.91713916612996738</v>
+        <v>0.91639189177292768</v>
       </c>
       <c r="E15">
-        <v>8.1769999999999996</v>
+        <v>8.1850000000000005</v>
       </c>
       <c r="F15">
-        <v>147.62100000000001</v>
+        <v>147.64699999999999</v>
       </c>
       <c r="G15">
-        <v>42.74</v>
+        <v>42.975000000000001</v>
       </c>
       <c r="H15">
-        <v>4.3730000000000002</v>
+        <v>4.41</v>
       </c>
       <c r="I15">
-        <v>4.1710000000000003</v>
+        <v>4.327</v>
       </c>
       <c r="J15">
-        <v>8.6956521739130436E-3</v>
+        <v>9.8039215686274508E-3</v>
       </c>
       <c r="K15">
-        <v>0.91426753843672226</v>
+        <v>0.92939429785506233</v>
       </c>
       <c r="L15">
-        <v>47.621000000000002</v>
+        <v>47.646999999999998</v>
       </c>
       <c r="M15">
-        <v>104.779</v>
+        <v>104.839</v>
       </c>
       <c r="N15">
-        <v>4.2619999999999996</v>
+        <v>4.3959999999999999</v>
       </c>
       <c r="O15">
-        <v>4.2610000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4.3949999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10</v>
       </c>
@@ -1201,46 +1201,46 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>1.8714587649510447E-2</v>
+        <v>2.0814438446573356E-2</v>
       </c>
       <c r="D16">
-        <v>0.91683172047394534</v>
+        <v>0.91805924177643472</v>
       </c>
       <c r="E16">
-        <v>8.2050000000000001</v>
+        <v>8.1980000000000004</v>
       </c>
       <c r="F16">
-        <v>147.78399999999999</v>
+        <v>147.892</v>
       </c>
       <c r="G16">
-        <v>42.927999999999997</v>
+        <v>43.003999999999998</v>
       </c>
       <c r="H16">
-        <v>6.3129999999999997</v>
+        <v>5.91</v>
       </c>
       <c r="I16">
-        <v>6.343</v>
+        <v>6.0369999999999999</v>
       </c>
       <c r="J16">
-        <v>7.6923076923076927E-3</v>
+        <v>3.0405405405405407E-2</v>
       </c>
       <c r="K16">
-        <v>0.91674495226995201</v>
+        <v>0.91948950118884698</v>
       </c>
       <c r="L16">
-        <v>47.783999999999999</v>
+        <v>47.892000000000003</v>
       </c>
       <c r="M16">
-        <v>106.849</v>
+        <v>106.91</v>
       </c>
       <c r="N16">
-        <v>6.1779999999999999</v>
+        <v>6.2080000000000002</v>
       </c>
       <c r="O16">
-        <v>6.1769999999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>6.2030000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10</v>
       </c>
@@ -1248,43 +1248,43 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>1.7840648052809837E-2</v>
+        <v>2.0067018141277461E-2</v>
       </c>
       <c r="D17">
-        <v>0.91523109394505542</v>
+        <v>0.91901687126665277</v>
       </c>
       <c r="E17">
-        <v>8.19</v>
+        <v>8.1850000000000005</v>
       </c>
       <c r="F17">
-        <v>147.75399999999999</v>
+        <v>148.06399999999999</v>
       </c>
       <c r="G17">
-        <v>42.994999999999997</v>
+        <v>43.354999999999997</v>
       </c>
       <c r="H17">
-        <v>9.8070000000000004</v>
+        <v>10.928000000000001</v>
       </c>
       <c r="I17">
-        <v>9.3490000000000002</v>
+        <v>10.132</v>
       </c>
       <c r="J17">
-        <v>1.7441860465116279E-2</v>
+        <v>1.9047619047619046E-2</v>
       </c>
       <c r="K17">
-        <v>0.91769502353081966</v>
+        <v>0.91506014892400267</v>
       </c>
       <c r="L17">
-        <v>47.753999999999998</v>
+        <v>48.064</v>
       </c>
       <c r="M17">
-        <v>111.248</v>
+        <v>111.378</v>
       </c>
       <c r="N17">
-        <v>10.148999999999999</v>
+        <v>10.234999999999999</v>
       </c>
       <c r="O17">
-        <v>10.146000000000001</v>
+        <v>10.231</v>
       </c>
     </row>
   </sheetData>
@@ -1293,29 +1293,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF880429-23BA-4F51-855E-C5B3584D6A7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2DB7578-0051-47D7-84AA-8E2FA1EFC836}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1356,7 +1355,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>22.981961046756272</v>
       </c>
